--- a/Estudos/estudos lucas.xlsx
+++ b/Estudos/estudos lucas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\M109-L3\Estudos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B555961-1FDC-4838-8D59-D8F4C56E1EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF6BE62-E225-4F7C-B0DE-E656297F21DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -920,9 +920,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>C = 1+3,33log10(I)</t>
-  </si>
-  <si>
     <t>para valores inteiros</t>
   </si>
   <si>
@@ -936,6 +933,9 @@
   </si>
   <si>
     <t>fR</t>
+  </si>
+  <si>
+    <t>C = 1+3,33log10(N)</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1274,6 +1274,14 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1295,14 +1303,47 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1328,51 +1369,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2370,28 +2369,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>33.21</c:v>
+                  <c:v>33.704999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71.210000000000008</c:v>
+                  <c:v>71.704999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109.21000000000001</c:v>
+                  <c:v>109.70500000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>147.21</c:v>
+                  <c:v>147.70500000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>185.21</c:v>
+                  <c:v>185.70500000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>223.21</c:v>
+                  <c:v>223.70500000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>261.21000000000004</c:v>
+                  <c:v>261.70499999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>299.71000000000004</c:v>
+                  <c:v>299.70500000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2403,10 +2402,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>128</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>32</c:v>
@@ -2415,7 +2414,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10</c:v>
@@ -2535,28 +2534,28 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>33.21</c:v>
+                        <c:v>33.704999999999998</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>71.210000000000008</c:v>
+                        <c:v>71.704999999999998</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>109.21000000000001</c:v>
+                        <c:v>109.70500000000001</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>147.21</c:v>
+                        <c:v>147.70500000000001</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>185.21</c:v>
+                        <c:v>185.70500000000001</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>223.21</c:v>
+                        <c:v>223.70500000000001</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>261.21000000000004</c:v>
+                        <c:v>261.70499999999998</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>299.71000000000004</c:v>
+                        <c:v>299.70500000000004</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2735,7 +2734,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2778,7 +2777,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -3087,28 +3086,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>33.21</c:v>
+                  <c:v>33.704999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71.210000000000008</c:v>
+                  <c:v>71.704999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109.21000000000001</c:v>
+                  <c:v>109.70500000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>147.21</c:v>
+                  <c:v>147.70500000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>185.21</c:v>
+                  <c:v>185.70500000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>223.21</c:v>
+                  <c:v>223.70500000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>261.21000000000004</c:v>
+                  <c:v>261.70499999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>299.71000000000004</c:v>
+                  <c:v>299.70500000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3120,28 +3119,28 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.16517857142857142</c:v>
+                  <c:v>0.16521739130434782</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5714285714285714</c:v>
+                  <c:v>0.56086956521739129</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14285714285714285</c:v>
+                  <c:v>0.1391304347826087</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7857142857142856E-2</c:v>
+                  <c:v>1.7391304347826087E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3392857142857142E-2</c:v>
+                  <c:v>3.0434782608695653E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4642857142857144E-2</c:v>
+                  <c:v>4.3478260869565216E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2321428571428572E-2</c:v>
+                  <c:v>2.1739130434782608E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2321428571428572E-2</c:v>
+                  <c:v>2.1739130434782608E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3252,28 +3251,28 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>33.21</c:v>
+                        <c:v>33.704999999999998</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>71.210000000000008</c:v>
+                        <c:v>71.704999999999998</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>109.21000000000001</c:v>
+                        <c:v>109.70500000000001</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>147.21</c:v>
+                        <c:v>147.70500000000001</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>185.21</c:v>
+                        <c:v>185.70500000000001</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>223.21</c:v>
+                        <c:v>223.70500000000001</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>261.21000000000004</c:v>
+                        <c:v>261.70499999999998</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>299.71000000000004</c:v>
+                        <c:v>299.70500000000004</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3452,7 +3451,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -3495,7 +3494,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -11731,22 +11730,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="6" t="s">
         <v>263</v>
       </c>
@@ -11755,124 +11754,124 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
       <c r="E4">
         <f>COUNTIF(Dados!F:F,'Questão 01'!A4)</f>
         <v>23</v>
       </c>
-      <c r="F4" s="77">
+      <c r="F4" s="46">
         <f>E4/$E$11</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
       <c r="E5">
         <f>COUNTIF(Dados!F:F,'Questão 01'!A5)</f>
         <v>43</v>
       </c>
-      <c r="F5" s="77">
+      <c r="F5" s="46">
         <f t="shared" ref="F5:F10" si="0">E5/$E$11</f>
         <v>0.18695652173913044</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
       <c r="E6">
         <f>COUNTIF(Dados!F:F,'Questão 01'!A6)</f>
         <v>20</v>
       </c>
-      <c r="F6" s="77">
+      <c r="F6" s="46">
         <f t="shared" si="0"/>
         <v>8.6956521739130432E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
       <c r="E7">
         <f>COUNTIF(Dados!F:F,'Questão 01'!A7)</f>
         <v>11</v>
       </c>
-      <c r="F7" s="77">
+      <c r="F7" s="46">
         <f t="shared" si="0"/>
         <v>4.7826086956521741E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
       <c r="E8">
         <f>COUNTIF(Dados!F:F,'Questão 01'!A8)</f>
         <v>52</v>
       </c>
-      <c r="F8" s="77">
+      <c r="F8" s="46">
         <f t="shared" si="0"/>
         <v>0.22608695652173913</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9">
         <f>COUNTIF(Dados!F:F,'Questão 01'!A9)</f>
         <v>57</v>
       </c>
-      <c r="F9" s="77">
+      <c r="F9" s="46">
         <f t="shared" si="0"/>
         <v>0.24782608695652175</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
       <c r="E10">
         <f>COUNTIF(Dados!F:F,'Questão 01'!A10)</f>
         <v>24</v>
       </c>
-      <c r="F10" s="77">
+      <c r="F10" s="46">
         <f t="shared" si="0"/>
         <v>0.10434782608695652</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="49" t="s">
         <v>265</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="7">
         <f>SUM(E4:E10)</f>
         <v>230</v>
@@ -11909,7 +11908,7 @@
   <dimension ref="B1:U138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31:M32"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11922,26 +11921,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="61" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="21">
         <f>MAX(Dados!D:D)</f>
         <v>318.45</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="56" t="s">
         <v>275</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
       <c r="J2" s="11" t="s">
         <v>263</v>
       </c>
@@ -11952,287 +11951,288 @@
         <v>264</v>
       </c>
       <c r="M2" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="O2" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="O2" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="P2" s="48"/>
+      <c r="P2" s="63"/>
       <c r="Q2" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="S2" s="48" t="s">
+      <c r="S2" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="T2" s="48"/>
+      <c r="T2" s="63"/>
       <c r="U2" s="18" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="22">
         <f>MIN(Dados!D:D)</f>
         <v>14.71</v>
       </c>
       <c r="G3" s="34">
+        <f>E3</f>
         <v>14.71</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>286</v>
       </c>
       <c r="I3" s="16">
-        <f>14.71+37</f>
-        <v>51.71</v>
+        <f>G3+($C$14-0.01)</f>
+        <v>52.7</v>
       </c>
       <c r="J3" s="26">
-        <f>COUNTIFS(Dados!D:D,"&gt;=14,71",Dados!D:D,"&lt;=51,71")</f>
-        <v>37</v>
+        <f>COUNTIFS(Dados!D:D,"&gt;=14,71",Dados!D:D,"&lt;=52,70")</f>
+        <v>38</v>
       </c>
       <c r="K3" s="36">
         <f>J3</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L3" s="35">
         <f>J3/$J$11</f>
-        <v>0.16517857142857142</v>
+        <v>0.16521739130434782</v>
       </c>
       <c r="M3" s="38">
         <f>L3</f>
-        <v>0.16517857142857142</v>
-      </c>
-      <c r="O3" s="49">
+        <v>0.16521739130434782</v>
+      </c>
+      <c r="O3" s="54">
         <f>(G3+I3)/2</f>
-        <v>33.21</v>
-      </c>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="72">
+        <v>33.704999999999998</v>
+      </c>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="41">
         <f>L3</f>
-        <v>0.16517857142857142</v>
-      </c>
-      <c r="S3" s="49">
+        <v>0.16521739130434782</v>
+      </c>
+      <c r="S3" s="54">
         <f>O3</f>
-        <v>33.21</v>
-      </c>
-      <c r="T3" s="50"/>
+        <v>33.704999999999998</v>
+      </c>
+      <c r="T3" s="55"/>
       <c r="U3" s="21">
         <f>J3</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="22">
         <f>E2-E3</f>
         <v>303.74</v>
       </c>
       <c r="G4" s="12">
-        <f>G3+38</f>
+        <f>G3+$C$14</f>
         <v>52.71</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>286</v>
       </c>
       <c r="I4" s="16">
-        <f>I3+38</f>
-        <v>89.710000000000008</v>
+        <f t="shared" ref="I4:I10" si="0">G4+($C$14-0.01)</f>
+        <v>90.7</v>
       </c>
       <c r="J4" s="26">
-        <f>COUNTIFS(Dados!D:D,"&gt;=52,71",Dados!D:D,"&lt;89,71")</f>
-        <v>128</v>
+        <f>COUNTIFS(Dados!D:D,"&gt;=52,71",Dados!D:D,"&lt;90,70")</f>
+        <v>129</v>
       </c>
       <c r="K4" s="36">
         <f>J4+K3</f>
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L4" s="35">
-        <f t="shared" ref="L4:L10" si="0">J4/$J$11</f>
-        <v>0.5714285714285714</v>
+        <f t="shared" ref="L4:L10" si="1">J4/$J$11</f>
+        <v>0.56086956521739129</v>
       </c>
       <c r="M4" s="38">
         <f>L4+M3</f>
-        <v>0.73660714285714279</v>
-      </c>
-      <c r="O4" s="49">
-        <f t="shared" ref="O4:O10" si="1">(G4+I4)/2</f>
-        <v>71.210000000000008</v>
-      </c>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="72">
-        <f t="shared" ref="Q4:Q10" si="2">L4</f>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="S4" s="49">
-        <f t="shared" ref="S4:S10" si="3">O4</f>
-        <v>71.210000000000008</v>
-      </c>
-      <c r="T4" s="50"/>
+        <v>0.72608695652173916</v>
+      </c>
+      <c r="O4" s="54">
+        <f t="shared" ref="O4:O10" si="2">(G4+I4)/2</f>
+        <v>71.704999999999998</v>
+      </c>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="41">
+        <f t="shared" ref="Q4:Q10" si="3">L4</f>
+        <v>0.56086956521739129</v>
+      </c>
+      <c r="S4" s="54">
+        <f t="shared" ref="S4:S10" si="4">O4</f>
+        <v>71.704999999999998</v>
+      </c>
+      <c r="T4" s="55"/>
       <c r="U4" s="21">
-        <f t="shared" ref="U4:U10" si="4">J4</f>
-        <v>128</v>
+        <f t="shared" ref="U4:U10" si="5">J4</f>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="24">
         <f>COUNT(Dados!D:D)</f>
         <v>230</v>
       </c>
       <c r="G5" s="12">
-        <f t="shared" ref="G5:G10" si="5">G4+38</f>
+        <f t="shared" ref="G5:G10" si="6">G4+$C$14</f>
         <v>90.710000000000008</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>286</v>
       </c>
       <c r="I5" s="16">
-        <f t="shared" ref="I5:I10" si="6">I4+38</f>
-        <v>127.71000000000001</v>
+        <f t="shared" si="0"/>
+        <v>128.70000000000002</v>
       </c>
       <c r="J5" s="26">
-        <f>COUNTIFS(Dados!D:D,"&gt;=90,71",Dados!D:D,"&lt;=127,71")</f>
+        <f>COUNTIFS(Dados!D:D,"&gt;=90,71",Dados!D:D,"&lt;=128,70")</f>
         <v>32</v>
       </c>
       <c r="K5" s="36">
         <f t="shared" ref="K5:K10" si="7">J5+K4</f>
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L5" s="35">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
+        <f t="shared" si="1"/>
+        <v>0.1391304347826087</v>
       </c>
       <c r="M5" s="38">
         <f t="shared" ref="M5:M10" si="8">L5+M4</f>
-        <v>0.87946428571428559</v>
-      </c>
-      <c r="O5" s="49">
-        <f t="shared" si="1"/>
-        <v>109.21000000000001</v>
-      </c>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="72">
+        <v>0.86521739130434783</v>
+      </c>
+      <c r="O5" s="54">
         <f t="shared" si="2"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="S5" s="49">
+        <v>109.70500000000001</v>
+      </c>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="41">
         <f t="shared" si="3"/>
-        <v>109.21000000000001</v>
-      </c>
-      <c r="T5" s="50"/>
+        <v>0.1391304347826087</v>
+      </c>
+      <c r="S5" s="54">
+        <f t="shared" si="4"/>
+        <v>109.70500000000001</v>
+      </c>
+      <c r="T5" s="55"/>
       <c r="U5" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G6" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>128.71</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>286</v>
       </c>
       <c r="I6" s="16">
-        <f t="shared" si="6"/>
-        <v>165.71</v>
+        <f t="shared" si="0"/>
+        <v>166.70000000000002</v>
       </c>
       <c r="J6" s="26">
-        <f>COUNTIFS(Dados!D:D,"&gt;=128,71",Dados!D:D,"&lt;=165,71")</f>
+        <f>COUNTIFS(Dados!D:D,"&gt;=128,71",Dados!D:D,"&lt;=166,70")</f>
         <v>4</v>
       </c>
       <c r="K6" s="36">
         <f t="shared" si="7"/>
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L6" s="35">
-        <f t="shared" si="0"/>
-        <v>1.7857142857142856E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.7391304347826087E-2</v>
       </c>
       <c r="M6" s="38">
         <f t="shared" si="8"/>
-        <v>0.89732142857142849</v>
-      </c>
-      <c r="O6" s="49">
-        <f t="shared" si="1"/>
-        <v>147.21</v>
-      </c>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="72">
+        <v>0.88260869565217392</v>
+      </c>
+      <c r="O6" s="54">
         <f t="shared" si="2"/>
-        <v>1.7857142857142856E-2</v>
-      </c>
-      <c r="S6" s="49">
+        <v>147.70500000000001</v>
+      </c>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="41">
         <f t="shared" si="3"/>
-        <v>147.21</v>
-      </c>
-      <c r="T6" s="50"/>
+        <v>1.7391304347826087E-2</v>
+      </c>
+      <c r="S6" s="54">
+        <f t="shared" si="4"/>
+        <v>147.70500000000001</v>
+      </c>
+      <c r="T6" s="55"/>
       <c r="U6" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G7" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>166.71</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>286</v>
       </c>
       <c r="I7" s="16">
-        <f t="shared" si="6"/>
-        <v>203.71</v>
+        <f t="shared" si="0"/>
+        <v>204.70000000000002</v>
       </c>
       <c r="J7" s="26">
-        <f>COUNTIFS(Dados!D:D,"&gt;=166",Dados!D:D,"&lt;=203,71")</f>
-        <v>3</v>
+        <f>COUNTIFS(Dados!D:D,"&gt;=166",Dados!D:D,"&lt;=204,70")</f>
+        <v>7</v>
       </c>
       <c r="K7" s="36">
         <f t="shared" si="7"/>
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="L7" s="35">
-        <f t="shared" si="0"/>
-        <v>1.3392857142857142E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.0434782608695653E-2</v>
       </c>
       <c r="M7" s="38">
         <f t="shared" si="8"/>
-        <v>0.91071428571428559</v>
-      </c>
-      <c r="O7" s="49">
-        <f t="shared" si="1"/>
-        <v>185.21</v>
-      </c>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="72">
+        <v>0.91304347826086962</v>
+      </c>
+      <c r="O7" s="54">
         <f t="shared" si="2"/>
-        <v>1.3392857142857142E-2</v>
-      </c>
-      <c r="S7" s="49">
+        <v>185.70500000000001</v>
+      </c>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="41">
         <f t="shared" si="3"/>
-        <v>185.21</v>
-      </c>
-      <c r="T7" s="50"/>
+        <v>3.0434782608695653E-2</v>
+      </c>
+      <c r="S7" s="54">
+        <f t="shared" si="4"/>
+        <v>185.70500000000001</v>
+      </c>
+      <c r="T7" s="55"/>
       <c r="U7" s="21">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C8" t="s">
         <v>284</v>
@@ -12241,104 +12241,104 @@
         <v>285</v>
       </c>
       <c r="G8" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>204.71</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>286</v>
       </c>
       <c r="I8" s="16">
-        <f t="shared" si="6"/>
-        <v>241.71</v>
+        <f t="shared" si="0"/>
+        <v>242.70000000000002</v>
       </c>
       <c r="J8" s="26">
-        <f>COUNTIFS(Dados!D:D,"&gt;=204,71",Dados!D:D,"&lt;=241,71")</f>
+        <f>COUNTIFS(Dados!D:D,"&gt;=204,71",Dados!D:D,"&lt;=242,70")</f>
         <v>10</v>
       </c>
       <c r="K8" s="36">
         <f t="shared" si="7"/>
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L8" s="35">
-        <f t="shared" si="0"/>
-        <v>4.4642857142857144E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="M8" s="38">
         <f t="shared" si="8"/>
-        <v>0.95535714285714268</v>
-      </c>
-      <c r="O8" s="49">
-        <f t="shared" si="1"/>
-        <v>223.21</v>
-      </c>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="72">
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="O8" s="54">
         <f t="shared" si="2"/>
-        <v>4.4642857142857144E-2</v>
-      </c>
-      <c r="S8" s="49">
+        <v>223.70500000000001</v>
+      </c>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="41">
         <f t="shared" si="3"/>
-        <v>223.21</v>
-      </c>
-      <c r="T8" s="50"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="S8" s="54">
+        <f t="shared" si="4"/>
+        <v>223.70500000000001</v>
+      </c>
+      <c r="T8" s="55"/>
       <c r="U8" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" t="s">
         <v>289</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>290</v>
       </c>
-      <c r="D9" t="s">
-        <v>291</v>
-      </c>
       <c r="G9" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>242.71</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>286</v>
       </c>
       <c r="I9" s="16">
-        <f t="shared" si="6"/>
-        <v>279.71000000000004</v>
+        <f t="shared" si="0"/>
+        <v>280.7</v>
       </c>
       <c r="J9" s="26">
-        <f>COUNTIFS(Dados!D:D,"&gt;=242,71",Dados!D:D,"&lt;=279,71")</f>
+        <f>COUNTIFS(Dados!D:D,"&gt;=242,71",Dados!D:D,"&lt;=280,70")</f>
         <v>5</v>
       </c>
       <c r="K9" s="36">
         <f t="shared" si="7"/>
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L9" s="35">
-        <f t="shared" si="0"/>
-        <v>2.2321428571428572E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.1739130434782608E-2</v>
       </c>
       <c r="M9" s="38">
         <f t="shared" si="8"/>
-        <v>0.97767857142857129</v>
-      </c>
-      <c r="O9" s="49">
-        <f t="shared" si="1"/>
-        <v>261.21000000000004</v>
-      </c>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="72">
+        <v>0.97826086956521741</v>
+      </c>
+      <c r="O9" s="54">
         <f t="shared" si="2"/>
-        <v>2.2321428571428572E-2</v>
-      </c>
-      <c r="S9" s="49">
+        <v>261.70499999999998</v>
+      </c>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="41">
         <f t="shared" si="3"/>
-        <v>261.21000000000004</v>
-      </c>
-      <c r="T9" s="50"/>
+        <v>2.1739130434782608E-2</v>
+      </c>
+      <c r="S9" s="54">
+        <f t="shared" si="4"/>
+        <v>261.70499999999998</v>
+      </c>
+      <c r="T9" s="55"/>
       <c r="U9" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -12353,48 +12353,48 @@
         <v>272</v>
       </c>
       <c r="G10" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>280.71000000000004</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>286</v>
       </c>
       <c r="I10" s="16">
-        <f>I9+38+1</f>
-        <v>318.71000000000004</v>
+        <f t="shared" si="0"/>
+        <v>318.70000000000005</v>
       </c>
       <c r="J10" s="26">
-        <f>COUNTIFS(Dados!D:D,"&gt;=280,71",Dados!D:D,"&lt;=318,71")</f>
+        <f>COUNTIFS(Dados!D:D,"&gt;=280,71",Dados!D:D,"&lt;=318,70")</f>
         <v>5</v>
       </c>
       <c r="K10" s="36">
         <f t="shared" si="7"/>
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="L10" s="35">
-        <f t="shared" si="0"/>
-        <v>2.2321428571428572E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.1739130434782608E-2</v>
       </c>
       <c r="M10" s="39">
         <f t="shared" si="8"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="O10" s="49">
-        <f t="shared" si="1"/>
-        <v>299.71000000000004</v>
-      </c>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="73">
+        <v>1</v>
+      </c>
+      <c r="O10" s="54">
         <f t="shared" si="2"/>
-        <v>2.2321428571428572E-2</v>
-      </c>
-      <c r="S10" s="49">
+        <v>299.70500000000004</v>
+      </c>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="42">
         <f t="shared" si="3"/>
-        <v>299.71000000000004</v>
-      </c>
-      <c r="T10" s="50"/>
+        <v>2.1739130434782608E-2</v>
+      </c>
+      <c r="S10" s="54">
+        <f t="shared" si="4"/>
+        <v>299.70500000000004</v>
+      </c>
+      <c r="T10" s="55"/>
       <c r="U10" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -12402,7 +12402,7 @@
       <c r="B11" s="20">
         <v>5</v>
       </c>
-      <c r="C11" s="70">
+      <c r="C11">
         <f>ROUNDUP(($E$4+0.01)/B11,0)</f>
         <v>61</v>
       </c>
@@ -12410,34 +12410,34 @@
         <f>ROUNDUP((B11*C11)-($E$4+0.01),0)</f>
         <v>2</v>
       </c>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="64" t="s">
         <v>277</v>
       </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
       <c r="J11" s="13">
         <f>SUM(J3:J10)</f>
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="K11" s="37" t="s">
         <v>286</v>
       </c>
       <c r="L11" s="17">
         <f>SUM(L3:L10)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="M11" s="31" t="s">
         <v>286</v>
       </c>
       <c r="O11" s="62"/>
-      <c r="P11" s="42"/>
+      <c r="P11" s="48"/>
       <c r="Q11" s="33"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <v>6</v>
       </c>
-      <c r="C12" s="70">
+      <c r="C12">
         <f t="shared" ref="C12:C16" si="9">ROUNDUP(($E$4+0.01)/B12,0)</f>
         <v>51</v>
       </c>
@@ -12451,14 +12451,14 @@
       <c r="L12" s="27"/>
       <c r="M12" s="33"/>
       <c r="O12" s="62"/>
-      <c r="P12" s="42"/>
+      <c r="P12" s="48"/>
       <c r="Q12" s="33"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <v>7</v>
       </c>
-      <c r="C13" s="70">
+      <c r="C13">
         <f t="shared" si="9"/>
         <v>44</v>
       </c>
@@ -12472,18 +12472,18 @@
       <c r="L13" s="27"/>
       <c r="M13" s="33"/>
       <c r="O13" s="62"/>
-      <c r="P13" s="42"/>
+      <c r="P13" s="48"/>
       <c r="Q13" s="33"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="74">
+      <c r="B14" s="43">
         <v>8</v>
       </c>
-      <c r="C14" s="75">
+      <c r="C14" s="44">
         <f t="shared" si="9"/>
         <v>38</v>
       </c>
-      <c r="D14" s="76">
+      <c r="D14" s="45">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
@@ -12493,14 +12493,14 @@
       <c r="L14" s="27"/>
       <c r="M14" s="33"/>
       <c r="O14" s="62"/>
-      <c r="P14" s="42"/>
+      <c r="P14" s="48"/>
       <c r="Q14" s="33"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <v>9</v>
       </c>
-      <c r="C15" s="70">
+      <c r="C15">
         <f t="shared" si="9"/>
         <v>34</v>
       </c>
@@ -12514,7 +12514,7 @@
       <c r="L15" s="27"/>
       <c r="M15" s="33"/>
       <c r="O15" s="62"/>
-      <c r="P15" s="42"/>
+      <c r="P15" s="48"/>
       <c r="Q15" s="33"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
@@ -12535,7 +12535,7 @@
       <c r="L16" s="27"/>
       <c r="M16" s="33"/>
       <c r="O16" s="62"/>
-      <c r="P16" s="42"/>
+      <c r="P16" s="48"/>
       <c r="Q16" s="33"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
@@ -12545,7 +12545,7 @@
       <c r="L17" s="27"/>
       <c r="M17" s="33"/>
       <c r="O17" s="62"/>
-      <c r="P17" s="42"/>
+      <c r="P17" s="48"/>
       <c r="Q17" s="33"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
@@ -12555,7 +12555,7 @@
       <c r="L18" s="27"/>
       <c r="M18" s="33"/>
       <c r="O18" s="62"/>
-      <c r="P18" s="42"/>
+      <c r="P18" s="48"/>
       <c r="Q18" s="33"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
@@ -12565,12 +12565,12 @@
       <c r="L19" s="27"/>
       <c r="M19" s="33"/>
       <c r="O19" s="62"/>
-      <c r="P19" s="42"/>
+      <c r="P19" s="48"/>
       <c r="Q19" s="33"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
@@ -12578,18 +12578,18 @@
       <c r="L20" s="27"/>
       <c r="M20" s="33"/>
       <c r="O20" s="62"/>
-      <c r="P20" s="42"/>
+      <c r="P20" s="48"/>
       <c r="Q20" s="33"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="58" t="s">
         <v>273</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="67"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
       <c r="E21" s="29">
-        <f>1+3.33*LOG10(C14)</f>
-        <v>6.2606793767339779</v>
+        <f>1+3.33*LOG10(E5)</f>
+        <v>8.8645536939385856</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
@@ -12597,7 +12597,7 @@
       <c r="L21" s="27"/>
       <c r="M21" s="33"/>
       <c r="O21" s="62"/>
-      <c r="P21" s="42"/>
+      <c r="P21" s="48"/>
       <c r="Q21" s="33"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
@@ -12606,7 +12606,7 @@
       </c>
       <c r="C22" s="24">
         <f>ROUNDUP(E21,0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
@@ -12614,7 +12614,7 @@
       <c r="L22" s="27"/>
       <c r="M22" s="33"/>
       <c r="O22" s="62"/>
-      <c r="P22" s="42"/>
+      <c r="P22" s="48"/>
       <c r="Q22" s="33"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
@@ -12624,7 +12624,7 @@
       <c r="L23" s="27"/>
       <c r="M23" s="33"/>
       <c r="O23" s="62"/>
-      <c r="P23" s="42"/>
+      <c r="P23" s="48"/>
       <c r="Q23" s="33"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
@@ -12634,7 +12634,7 @@
       <c r="L24" s="27"/>
       <c r="M24" s="33"/>
       <c r="O24" s="62"/>
-      <c r="P24" s="42"/>
+      <c r="P24" s="48"/>
       <c r="Q24" s="33"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
@@ -12644,7 +12644,7 @@
       <c r="L25" s="27"/>
       <c r="M25" s="33"/>
       <c r="O25" s="62"/>
-      <c r="P25" s="42"/>
+      <c r="P25" s="48"/>
       <c r="Q25" s="33"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
@@ -12654,7 +12654,7 @@
       <c r="L26" s="27"/>
       <c r="M26" s="33"/>
       <c r="O26" s="62"/>
-      <c r="P26" s="42"/>
+      <c r="P26" s="48"/>
       <c r="Q26" s="33"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
@@ -12664,79 +12664,79 @@
       <c r="L27" s="27"/>
       <c r="M27" s="33"/>
       <c r="O27" s="62"/>
-      <c r="P27" s="42"/>
+      <c r="P27" s="48"/>
       <c r="Q27" s="33"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="65" t="s">
         <v>279</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="54"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="71"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="32"/>
       <c r="L28" s="27"/>
       <c r="M28" s="33"/>
       <c r="O28" s="62"/>
-      <c r="P28" s="42"/>
+      <c r="P28" s="48"/>
       <c r="Q28" s="33"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="60"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="56"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="73"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="32"/>
       <c r="L29" s="27"/>
       <c r="M29" s="33"/>
       <c r="O29" s="62"/>
-      <c r="P29" s="42"/>
+      <c r="P29" s="48"/>
       <c r="Q29" s="33"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="60"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="56"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="32"/>
       <c r="L30" s="27"/>
       <c r="M30" s="33"/>
       <c r="O30" s="62"/>
-      <c r="P30" s="42"/>
+      <c r="P30" s="48"/>
       <c r="Q30" s="33"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="60"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="56"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="73"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="32"/>
       <c r="L31" s="27"/>
       <c r="M31" s="33"/>
       <c r="O31" s="62"/>
-      <c r="P31" s="42"/>
+      <c r="P31" s="48"/>
       <c r="Q31" s="33"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="61"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="58"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="75"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
       <c r="I32" s="32"/>
       <c r="L32" s="27"/>
       <c r="M32" s="33"/>
       <c r="O32" s="62"/>
-      <c r="P32" s="42"/>
+      <c r="P32" s="48"/>
       <c r="Q32" s="33"/>
     </row>
     <row r="33" spans="7:17" x14ac:dyDescent="0.25">
@@ -12746,7 +12746,7 @@
       <c r="L33" s="27"/>
       <c r="M33" s="33"/>
       <c r="O33" s="62"/>
-      <c r="P33" s="42"/>
+      <c r="P33" s="48"/>
       <c r="Q33" s="33"/>
     </row>
     <row r="34" spans="7:17" x14ac:dyDescent="0.25">
@@ -12756,7 +12756,7 @@
       <c r="L34" s="27"/>
       <c r="M34" s="33"/>
       <c r="O34" s="62"/>
-      <c r="P34" s="42"/>
+      <c r="P34" s="48"/>
       <c r="Q34" s="33"/>
     </row>
     <row r="35" spans="7:17" x14ac:dyDescent="0.25">
@@ -12766,7 +12766,7 @@
       <c r="L35" s="27"/>
       <c r="M35" s="33"/>
       <c r="O35" s="62"/>
-      <c r="P35" s="42"/>
+      <c r="P35" s="48"/>
       <c r="Q35" s="33"/>
     </row>
     <row r="36" spans="7:17" x14ac:dyDescent="0.25">
@@ -12776,7 +12776,7 @@
       <c r="L36" s="27"/>
       <c r="M36" s="33"/>
       <c r="O36" s="62"/>
-      <c r="P36" s="42"/>
+      <c r="P36" s="48"/>
       <c r="Q36" s="33"/>
     </row>
     <row r="37" spans="7:17" x14ac:dyDescent="0.25">
@@ -12786,7 +12786,7 @@
       <c r="L37" s="27"/>
       <c r="M37" s="33"/>
       <c r="O37" s="62"/>
-      <c r="P37" s="42"/>
+      <c r="P37" s="48"/>
       <c r="Q37" s="33"/>
     </row>
     <row r="38" spans="7:17" x14ac:dyDescent="0.25">
@@ -12796,7 +12796,7 @@
       <c r="L38" s="27"/>
       <c r="M38" s="33"/>
       <c r="O38" s="62"/>
-      <c r="P38" s="42"/>
+      <c r="P38" s="48"/>
       <c r="Q38" s="33"/>
     </row>
     <row r="39" spans="7:17" x14ac:dyDescent="0.25">
@@ -12806,7 +12806,7 @@
       <c r="L39" s="27"/>
       <c r="M39" s="33"/>
       <c r="O39" s="62"/>
-      <c r="P39" s="42"/>
+      <c r="P39" s="48"/>
       <c r="Q39" s="33"/>
     </row>
     <row r="40" spans="7:17" x14ac:dyDescent="0.25">
@@ -12816,7 +12816,7 @@
       <c r="L40" s="27"/>
       <c r="M40" s="33"/>
       <c r="O40" s="62"/>
-      <c r="P40" s="42"/>
+      <c r="P40" s="48"/>
       <c r="Q40" s="33"/>
     </row>
     <row r="41" spans="7:17" x14ac:dyDescent="0.25">
@@ -12826,7 +12826,7 @@
       <c r="L41" s="27"/>
       <c r="M41" s="33"/>
       <c r="O41" s="62"/>
-      <c r="P41" s="42"/>
+      <c r="P41" s="48"/>
       <c r="Q41" s="33"/>
     </row>
     <row r="42" spans="7:17" x14ac:dyDescent="0.25">
@@ -12836,7 +12836,7 @@
       <c r="L42" s="27"/>
       <c r="M42" s="33"/>
       <c r="O42" s="62"/>
-      <c r="P42" s="42"/>
+      <c r="P42" s="48"/>
       <c r="Q42" s="33"/>
     </row>
     <row r="43" spans="7:17" x14ac:dyDescent="0.25">
@@ -12846,7 +12846,7 @@
       <c r="L43" s="27"/>
       <c r="M43" s="33"/>
       <c r="O43" s="62"/>
-      <c r="P43" s="42"/>
+      <c r="P43" s="48"/>
       <c r="Q43" s="33"/>
     </row>
     <row r="44" spans="7:17" x14ac:dyDescent="0.25">
@@ -12856,7 +12856,7 @@
       <c r="L44" s="27"/>
       <c r="M44" s="33"/>
       <c r="O44" s="62"/>
-      <c r="P44" s="42"/>
+      <c r="P44" s="48"/>
       <c r="Q44" s="33"/>
     </row>
     <row r="45" spans="7:17" x14ac:dyDescent="0.25">
@@ -12866,7 +12866,7 @@
       <c r="L45" s="27"/>
       <c r="M45" s="33"/>
       <c r="O45" s="62"/>
-      <c r="P45" s="42"/>
+      <c r="P45" s="48"/>
       <c r="Q45" s="33"/>
     </row>
     <row r="46" spans="7:17" x14ac:dyDescent="0.25">
@@ -12876,7 +12876,7 @@
       <c r="L46" s="27"/>
       <c r="M46" s="33"/>
       <c r="O46" s="62"/>
-      <c r="P46" s="42"/>
+      <c r="P46" s="48"/>
       <c r="Q46" s="33"/>
     </row>
     <row r="47" spans="7:17" x14ac:dyDescent="0.25">
@@ -12886,7 +12886,7 @@
       <c r="L47" s="27"/>
       <c r="M47" s="33"/>
       <c r="O47" s="62"/>
-      <c r="P47" s="42"/>
+      <c r="P47" s="48"/>
       <c r="Q47" s="33"/>
     </row>
     <row r="48" spans="7:17" x14ac:dyDescent="0.25">
@@ -12896,7 +12896,7 @@
       <c r="L48" s="27"/>
       <c r="M48" s="33"/>
       <c r="O48" s="62"/>
-      <c r="P48" s="42"/>
+      <c r="P48" s="48"/>
       <c r="Q48" s="33"/>
     </row>
     <row r="49" spans="7:17" x14ac:dyDescent="0.25">
@@ -12906,7 +12906,7 @@
       <c r="L49" s="27"/>
       <c r="M49" s="33"/>
       <c r="O49" s="62"/>
-      <c r="P49" s="42"/>
+      <c r="P49" s="48"/>
       <c r="Q49" s="33"/>
     </row>
     <row r="50" spans="7:17" x14ac:dyDescent="0.25">
@@ -12916,7 +12916,7 @@
       <c r="L50" s="27"/>
       <c r="M50" s="33"/>
       <c r="O50" s="62"/>
-      <c r="P50" s="42"/>
+      <c r="P50" s="48"/>
       <c r="Q50" s="33"/>
     </row>
     <row r="51" spans="7:17" x14ac:dyDescent="0.25">
@@ -12926,7 +12926,7 @@
       <c r="L51" s="27"/>
       <c r="M51" s="33"/>
       <c r="O51" s="62"/>
-      <c r="P51" s="42"/>
+      <c r="P51" s="48"/>
       <c r="Q51" s="33"/>
     </row>
     <row r="52" spans="7:17" x14ac:dyDescent="0.25">
@@ -12936,7 +12936,7 @@
       <c r="L52" s="27"/>
       <c r="M52" s="33"/>
       <c r="O52" s="62"/>
-      <c r="P52" s="42"/>
+      <c r="P52" s="48"/>
       <c r="Q52" s="33"/>
     </row>
     <row r="53" spans="7:17" x14ac:dyDescent="0.25">
@@ -12946,7 +12946,7 @@
       <c r="L53" s="27"/>
       <c r="M53" s="33"/>
       <c r="O53" s="62"/>
-      <c r="P53" s="42"/>
+      <c r="P53" s="48"/>
       <c r="Q53" s="33"/>
     </row>
     <row r="54" spans="7:17" x14ac:dyDescent="0.25">
@@ -12956,7 +12956,7 @@
       <c r="L54" s="27"/>
       <c r="M54" s="33"/>
       <c r="O54" s="62"/>
-      <c r="P54" s="42"/>
+      <c r="P54" s="48"/>
       <c r="Q54" s="33"/>
     </row>
     <row r="55" spans="7:17" x14ac:dyDescent="0.25">
@@ -12966,7 +12966,7 @@
       <c r="L55" s="27"/>
       <c r="M55" s="33"/>
       <c r="O55" s="62"/>
-      <c r="P55" s="42"/>
+      <c r="P55" s="48"/>
       <c r="Q55" s="33"/>
     </row>
     <row r="56" spans="7:17" x14ac:dyDescent="0.25">
@@ -12976,7 +12976,7 @@
       <c r="L56" s="27"/>
       <c r="M56" s="33"/>
       <c r="O56" s="62"/>
-      <c r="P56" s="42"/>
+      <c r="P56" s="48"/>
       <c r="Q56" s="33"/>
     </row>
     <row r="57" spans="7:17" x14ac:dyDescent="0.25">
@@ -12986,7 +12986,7 @@
       <c r="L57" s="27"/>
       <c r="M57" s="33"/>
       <c r="O57" s="62"/>
-      <c r="P57" s="42"/>
+      <c r="P57" s="48"/>
       <c r="Q57" s="33"/>
     </row>
     <row r="58" spans="7:17" x14ac:dyDescent="0.25">
@@ -12996,7 +12996,7 @@
       <c r="L58" s="27"/>
       <c r="M58" s="33"/>
       <c r="O58" s="62"/>
-      <c r="P58" s="42"/>
+      <c r="P58" s="48"/>
       <c r="Q58" s="33"/>
     </row>
     <row r="59" spans="7:17" x14ac:dyDescent="0.25">
@@ -13006,7 +13006,7 @@
       <c r="L59" s="27"/>
       <c r="M59" s="33"/>
       <c r="O59" s="62"/>
-      <c r="P59" s="42"/>
+      <c r="P59" s="48"/>
       <c r="Q59" s="33"/>
     </row>
     <row r="60" spans="7:17" x14ac:dyDescent="0.25">
@@ -13016,7 +13016,7 @@
       <c r="L60" s="27"/>
       <c r="M60" s="33"/>
       <c r="O60" s="62"/>
-      <c r="P60" s="42"/>
+      <c r="P60" s="48"/>
       <c r="Q60" s="33"/>
     </row>
     <row r="61" spans="7:17" x14ac:dyDescent="0.25">
@@ -13026,7 +13026,7 @@
       <c r="L61" s="27"/>
       <c r="M61" s="33"/>
       <c r="O61" s="62"/>
-      <c r="P61" s="42"/>
+      <c r="P61" s="48"/>
       <c r="Q61" s="33"/>
     </row>
     <row r="62" spans="7:17" x14ac:dyDescent="0.25">
@@ -13036,7 +13036,7 @@
       <c r="L62" s="27"/>
       <c r="M62" s="33"/>
       <c r="O62" s="62"/>
-      <c r="P62" s="42"/>
+      <c r="P62" s="48"/>
       <c r="Q62" s="33"/>
     </row>
     <row r="63" spans="7:17" x14ac:dyDescent="0.25">
@@ -13046,7 +13046,7 @@
       <c r="L63" s="27"/>
       <c r="M63" s="33"/>
       <c r="O63" s="62"/>
-      <c r="P63" s="42"/>
+      <c r="P63" s="48"/>
       <c r="Q63" s="33"/>
     </row>
     <row r="64" spans="7:17" x14ac:dyDescent="0.25">
@@ -13056,7 +13056,7 @@
       <c r="L64" s="27"/>
       <c r="M64" s="33"/>
       <c r="O64" s="62"/>
-      <c r="P64" s="42"/>
+      <c r="P64" s="48"/>
       <c r="Q64" s="33"/>
     </row>
     <row r="65" spans="7:17" x14ac:dyDescent="0.25">
@@ -13066,7 +13066,7 @@
       <c r="L65" s="27"/>
       <c r="M65" s="33"/>
       <c r="O65" s="62"/>
-      <c r="P65" s="42"/>
+      <c r="P65" s="48"/>
       <c r="Q65" s="33"/>
     </row>
     <row r="66" spans="7:17" x14ac:dyDescent="0.25">
@@ -13076,7 +13076,7 @@
       <c r="L66" s="27"/>
       <c r="M66" s="33"/>
       <c r="O66" s="62"/>
-      <c r="P66" s="42"/>
+      <c r="P66" s="48"/>
       <c r="Q66" s="33"/>
     </row>
     <row r="67" spans="7:17" x14ac:dyDescent="0.25">
@@ -13086,7 +13086,7 @@
       <c r="L67" s="27"/>
       <c r="M67" s="33"/>
       <c r="O67" s="62"/>
-      <c r="P67" s="42"/>
+      <c r="P67" s="48"/>
       <c r="Q67" s="33"/>
     </row>
     <row r="68" spans="7:17" x14ac:dyDescent="0.25">
@@ -13096,7 +13096,7 @@
       <c r="L68" s="27"/>
       <c r="M68" s="33"/>
       <c r="O68" s="62"/>
-      <c r="P68" s="42"/>
+      <c r="P68" s="48"/>
       <c r="Q68" s="33"/>
     </row>
     <row r="69" spans="7:17" x14ac:dyDescent="0.25">
@@ -13106,7 +13106,7 @@
       <c r="L69" s="27"/>
       <c r="M69" s="33"/>
       <c r="O69" s="62"/>
-      <c r="P69" s="42"/>
+      <c r="P69" s="48"/>
       <c r="Q69" s="33"/>
     </row>
     <row r="70" spans="7:17" x14ac:dyDescent="0.25">
@@ -13116,7 +13116,7 @@
       <c r="L70" s="27"/>
       <c r="M70" s="33"/>
       <c r="O70" s="62"/>
-      <c r="P70" s="42"/>
+      <c r="P70" s="48"/>
       <c r="Q70" s="33"/>
     </row>
     <row r="71" spans="7:17" x14ac:dyDescent="0.25">
@@ -13126,7 +13126,7 @@
       <c r="L71" s="27"/>
       <c r="M71" s="33"/>
       <c r="O71" s="62"/>
-      <c r="P71" s="42"/>
+      <c r="P71" s="48"/>
       <c r="Q71" s="33"/>
     </row>
     <row r="72" spans="7:17" x14ac:dyDescent="0.25">
@@ -13136,7 +13136,7 @@
       <c r="L72" s="27"/>
       <c r="M72" s="33"/>
       <c r="O72" s="62"/>
-      <c r="P72" s="42"/>
+      <c r="P72" s="48"/>
       <c r="Q72" s="33"/>
     </row>
     <row r="73" spans="7:17" x14ac:dyDescent="0.25">
@@ -13146,7 +13146,7 @@
       <c r="L73" s="27"/>
       <c r="M73" s="33"/>
       <c r="O73" s="62"/>
-      <c r="P73" s="42"/>
+      <c r="P73" s="48"/>
       <c r="Q73" s="33"/>
     </row>
     <row r="74" spans="7:17" x14ac:dyDescent="0.25">
@@ -13156,7 +13156,7 @@
       <c r="L74" s="27"/>
       <c r="M74" s="33"/>
       <c r="O74" s="62"/>
-      <c r="P74" s="42"/>
+      <c r="P74" s="48"/>
       <c r="Q74" s="33"/>
     </row>
     <row r="75" spans="7:17" x14ac:dyDescent="0.25">
@@ -13166,7 +13166,7 @@
       <c r="L75" s="27"/>
       <c r="M75" s="33"/>
       <c r="O75" s="62"/>
-      <c r="P75" s="42"/>
+      <c r="P75" s="48"/>
       <c r="Q75" s="33"/>
     </row>
     <row r="76" spans="7:17" x14ac:dyDescent="0.25">
@@ -13176,7 +13176,7 @@
       <c r="L76" s="27"/>
       <c r="M76" s="33"/>
       <c r="O76" s="62"/>
-      <c r="P76" s="42"/>
+      <c r="P76" s="48"/>
       <c r="Q76" s="33"/>
     </row>
     <row r="77" spans="7:17" x14ac:dyDescent="0.25">
@@ -13186,7 +13186,7 @@
       <c r="L77" s="27"/>
       <c r="M77" s="33"/>
       <c r="O77" s="62"/>
-      <c r="P77" s="42"/>
+      <c r="P77" s="48"/>
       <c r="Q77" s="33"/>
     </row>
     <row r="78" spans="7:17" x14ac:dyDescent="0.25">
@@ -13196,7 +13196,7 @@
       <c r="L78" s="27"/>
       <c r="M78" s="33"/>
       <c r="O78" s="62"/>
-      <c r="P78" s="42"/>
+      <c r="P78" s="48"/>
       <c r="Q78" s="33"/>
     </row>
     <row r="79" spans="7:17" x14ac:dyDescent="0.25">
@@ -13206,7 +13206,7 @@
       <c r="L79" s="27"/>
       <c r="M79" s="33"/>
       <c r="O79" s="62"/>
-      <c r="P79" s="42"/>
+      <c r="P79" s="48"/>
       <c r="Q79" s="33"/>
     </row>
     <row r="80" spans="7:17" x14ac:dyDescent="0.25">
@@ -13216,7 +13216,7 @@
       <c r="L80" s="27"/>
       <c r="M80" s="33"/>
       <c r="O80" s="62"/>
-      <c r="P80" s="42"/>
+      <c r="P80" s="48"/>
       <c r="Q80" s="33"/>
     </row>
     <row r="81" spans="7:17" x14ac:dyDescent="0.25">
@@ -13226,7 +13226,7 @@
       <c r="L81" s="27"/>
       <c r="M81" s="33"/>
       <c r="O81" s="62"/>
-      <c r="P81" s="42"/>
+      <c r="P81" s="48"/>
       <c r="Q81" s="33"/>
     </row>
     <row r="82" spans="7:17" x14ac:dyDescent="0.25">
@@ -13236,7 +13236,7 @@
       <c r="L82" s="27"/>
       <c r="M82" s="33"/>
       <c r="O82" s="62"/>
-      <c r="P82" s="42"/>
+      <c r="P82" s="48"/>
       <c r="Q82" s="33"/>
     </row>
     <row r="83" spans="7:17" x14ac:dyDescent="0.25">
@@ -13246,7 +13246,7 @@
       <c r="L83" s="27"/>
       <c r="M83" s="33"/>
       <c r="O83" s="62"/>
-      <c r="P83" s="42"/>
+      <c r="P83" s="48"/>
       <c r="Q83" s="33"/>
     </row>
     <row r="84" spans="7:17" x14ac:dyDescent="0.25">
@@ -13256,7 +13256,7 @@
       <c r="L84" s="27"/>
       <c r="M84" s="33"/>
       <c r="O84" s="62"/>
-      <c r="P84" s="42"/>
+      <c r="P84" s="48"/>
       <c r="Q84" s="33"/>
     </row>
     <row r="85" spans="7:17" x14ac:dyDescent="0.25">
@@ -13266,7 +13266,7 @@
       <c r="L85" s="27"/>
       <c r="M85" s="33"/>
       <c r="O85" s="62"/>
-      <c r="P85" s="42"/>
+      <c r="P85" s="48"/>
       <c r="Q85" s="33"/>
     </row>
     <row r="86" spans="7:17" x14ac:dyDescent="0.25">
@@ -13276,7 +13276,7 @@
       <c r="L86" s="27"/>
       <c r="M86" s="33"/>
       <c r="O86" s="62"/>
-      <c r="P86" s="42"/>
+      <c r="P86" s="48"/>
       <c r="Q86" s="33"/>
     </row>
     <row r="87" spans="7:17" x14ac:dyDescent="0.25">
@@ -13286,7 +13286,7 @@
       <c r="L87" s="27"/>
       <c r="M87" s="33"/>
       <c r="O87" s="62"/>
-      <c r="P87" s="42"/>
+      <c r="P87" s="48"/>
       <c r="Q87" s="33"/>
     </row>
     <row r="88" spans="7:17" x14ac:dyDescent="0.25">
@@ -13296,7 +13296,7 @@
       <c r="L88" s="27"/>
       <c r="M88" s="33"/>
       <c r="O88" s="62"/>
-      <c r="P88" s="42"/>
+      <c r="P88" s="48"/>
       <c r="Q88" s="33"/>
     </row>
     <row r="89" spans="7:17" x14ac:dyDescent="0.25">
@@ -13306,7 +13306,7 @@
       <c r="L89" s="27"/>
       <c r="M89" s="33"/>
       <c r="O89" s="62"/>
-      <c r="P89" s="42"/>
+      <c r="P89" s="48"/>
       <c r="Q89" s="33"/>
     </row>
     <row r="90" spans="7:17" x14ac:dyDescent="0.25">
@@ -13316,7 +13316,7 @@
       <c r="L90" s="27"/>
       <c r="M90" s="33"/>
       <c r="O90" s="62"/>
-      <c r="P90" s="42"/>
+      <c r="P90" s="48"/>
       <c r="Q90" s="33"/>
     </row>
     <row r="91" spans="7:17" x14ac:dyDescent="0.25">
@@ -13326,7 +13326,7 @@
       <c r="L91" s="27"/>
       <c r="M91" s="33"/>
       <c r="O91" s="62"/>
-      <c r="P91" s="42"/>
+      <c r="P91" s="48"/>
       <c r="Q91" s="33"/>
     </row>
     <row r="92" spans="7:17" x14ac:dyDescent="0.25">
@@ -13336,7 +13336,7 @@
       <c r="L92" s="27"/>
       <c r="M92" s="33"/>
       <c r="O92" s="62"/>
-      <c r="P92" s="42"/>
+      <c r="P92" s="48"/>
       <c r="Q92" s="33"/>
     </row>
     <row r="93" spans="7:17" x14ac:dyDescent="0.25">
@@ -13346,7 +13346,7 @@
       <c r="L93" s="27"/>
       <c r="M93" s="33"/>
       <c r="O93" s="62"/>
-      <c r="P93" s="42"/>
+      <c r="P93" s="48"/>
       <c r="Q93" s="33"/>
     </row>
     <row r="94" spans="7:17" x14ac:dyDescent="0.25">
@@ -13356,7 +13356,7 @@
       <c r="L94" s="27"/>
       <c r="M94" s="33"/>
       <c r="O94" s="62"/>
-      <c r="P94" s="42"/>
+      <c r="P94" s="48"/>
       <c r="Q94" s="33"/>
     </row>
     <row r="95" spans="7:17" x14ac:dyDescent="0.25">
@@ -13366,7 +13366,7 @@
       <c r="L95" s="27"/>
       <c r="M95" s="33"/>
       <c r="O95" s="62"/>
-      <c r="P95" s="42"/>
+      <c r="P95" s="48"/>
       <c r="Q95" s="33"/>
     </row>
     <row r="96" spans="7:17" x14ac:dyDescent="0.25">
@@ -13376,7 +13376,7 @@
       <c r="L96" s="27"/>
       <c r="M96" s="33"/>
       <c r="O96" s="62"/>
-      <c r="P96" s="42"/>
+      <c r="P96" s="48"/>
       <c r="Q96" s="33"/>
     </row>
     <row r="97" spans="7:17" x14ac:dyDescent="0.25">
@@ -13386,7 +13386,7 @@
       <c r="L97" s="27"/>
       <c r="M97" s="33"/>
       <c r="O97" s="62"/>
-      <c r="P97" s="42"/>
+      <c r="P97" s="48"/>
       <c r="Q97" s="33"/>
     </row>
     <row r="98" spans="7:17" x14ac:dyDescent="0.25">
@@ -13396,7 +13396,7 @@
       <c r="L98" s="27"/>
       <c r="M98" s="33"/>
       <c r="O98" s="62"/>
-      <c r="P98" s="42"/>
+      <c r="P98" s="48"/>
       <c r="Q98" s="33"/>
     </row>
     <row r="99" spans="7:17" x14ac:dyDescent="0.25">
@@ -13406,7 +13406,7 @@
       <c r="L99" s="27"/>
       <c r="M99" s="33"/>
       <c r="O99" s="62"/>
-      <c r="P99" s="42"/>
+      <c r="P99" s="48"/>
       <c r="Q99" s="33"/>
     </row>
     <row r="100" spans="7:17" x14ac:dyDescent="0.25">
@@ -13416,7 +13416,7 @@
       <c r="L100" s="27"/>
       <c r="M100" s="33"/>
       <c r="O100" s="62"/>
-      <c r="P100" s="42"/>
+      <c r="P100" s="48"/>
       <c r="Q100" s="33"/>
     </row>
     <row r="101" spans="7:17" x14ac:dyDescent="0.25">
@@ -13426,7 +13426,7 @@
       <c r="L101" s="27"/>
       <c r="M101" s="33"/>
       <c r="O101" s="62"/>
-      <c r="P101" s="42"/>
+      <c r="P101" s="48"/>
       <c r="Q101" s="33"/>
     </row>
     <row r="102" spans="7:17" x14ac:dyDescent="0.25">
@@ -13436,7 +13436,7 @@
       <c r="L102" s="27"/>
       <c r="M102" s="33"/>
       <c r="O102" s="62"/>
-      <c r="P102" s="42"/>
+      <c r="P102" s="48"/>
       <c r="Q102" s="33"/>
     </row>
     <row r="103" spans="7:17" x14ac:dyDescent="0.25">
@@ -13446,7 +13446,7 @@
       <c r="L103" s="27"/>
       <c r="M103" s="33"/>
       <c r="O103" s="62"/>
-      <c r="P103" s="42"/>
+      <c r="P103" s="48"/>
       <c r="Q103" s="33"/>
     </row>
     <row r="104" spans="7:17" x14ac:dyDescent="0.25">
@@ -13456,7 +13456,7 @@
       <c r="L104" s="27"/>
       <c r="M104" s="33"/>
       <c r="O104" s="62"/>
-      <c r="P104" s="42"/>
+      <c r="P104" s="48"/>
       <c r="Q104" s="33"/>
     </row>
     <row r="105" spans="7:17" x14ac:dyDescent="0.25">
@@ -13466,7 +13466,7 @@
       <c r="L105" s="27"/>
       <c r="M105" s="33"/>
       <c r="O105" s="62"/>
-      <c r="P105" s="42"/>
+      <c r="P105" s="48"/>
       <c r="Q105" s="33"/>
     </row>
     <row r="106" spans="7:17" x14ac:dyDescent="0.25">
@@ -13476,7 +13476,7 @@
       <c r="L106" s="27"/>
       <c r="M106" s="33"/>
       <c r="O106" s="62"/>
-      <c r="P106" s="42"/>
+      <c r="P106" s="48"/>
       <c r="Q106" s="33"/>
     </row>
     <row r="107" spans="7:17" x14ac:dyDescent="0.25">
@@ -13486,7 +13486,7 @@
       <c r="L107" s="27"/>
       <c r="M107" s="33"/>
       <c r="O107" s="62"/>
-      <c r="P107" s="42"/>
+      <c r="P107" s="48"/>
       <c r="Q107" s="33"/>
     </row>
     <row r="108" spans="7:17" x14ac:dyDescent="0.25">
@@ -13496,7 +13496,7 @@
       <c r="L108" s="27"/>
       <c r="M108" s="33"/>
       <c r="O108" s="62"/>
-      <c r="P108" s="42"/>
+      <c r="P108" s="48"/>
       <c r="Q108" s="33"/>
     </row>
     <row r="109" spans="7:17" x14ac:dyDescent="0.25">
@@ -13506,7 +13506,7 @@
       <c r="L109" s="27"/>
       <c r="M109" s="33"/>
       <c r="O109" s="62"/>
-      <c r="P109" s="42"/>
+      <c r="P109" s="48"/>
       <c r="Q109" s="33"/>
     </row>
     <row r="110" spans="7:17" x14ac:dyDescent="0.25">
@@ -13516,7 +13516,7 @@
       <c r="L110" s="27"/>
       <c r="M110" s="33"/>
       <c r="O110" s="62"/>
-      <c r="P110" s="42"/>
+      <c r="P110" s="48"/>
       <c r="Q110" s="33"/>
     </row>
     <row r="111" spans="7:17" x14ac:dyDescent="0.25">
@@ -13526,7 +13526,7 @@
       <c r="L111" s="27"/>
       <c r="M111" s="33"/>
       <c r="O111" s="62"/>
-      <c r="P111" s="42"/>
+      <c r="P111" s="48"/>
       <c r="Q111" s="33"/>
     </row>
     <row r="112" spans="7:17" x14ac:dyDescent="0.25">
@@ -13536,7 +13536,7 @@
       <c r="L112" s="27"/>
       <c r="M112" s="33"/>
       <c r="O112" s="62"/>
-      <c r="P112" s="42"/>
+      <c r="P112" s="48"/>
       <c r="Q112" s="33"/>
     </row>
     <row r="113" spans="7:17" x14ac:dyDescent="0.25">
@@ -13546,7 +13546,7 @@
       <c r="L113" s="27"/>
       <c r="M113" s="33"/>
       <c r="O113" s="62"/>
-      <c r="P113" s="42"/>
+      <c r="P113" s="48"/>
       <c r="Q113" s="33"/>
     </row>
     <row r="114" spans="7:17" x14ac:dyDescent="0.25">
@@ -13556,7 +13556,7 @@
       <c r="L114" s="27"/>
       <c r="M114" s="33"/>
       <c r="O114" s="62"/>
-      <c r="P114" s="42"/>
+      <c r="P114" s="48"/>
       <c r="Q114" s="33"/>
     </row>
     <row r="115" spans="7:17" x14ac:dyDescent="0.25">
@@ -13566,7 +13566,7 @@
       <c r="L115" s="27"/>
       <c r="M115" s="33"/>
       <c r="O115" s="62"/>
-      <c r="P115" s="42"/>
+      <c r="P115" s="48"/>
       <c r="Q115" s="33"/>
     </row>
     <row r="116" spans="7:17" x14ac:dyDescent="0.25">
@@ -13576,7 +13576,7 @@
       <c r="L116" s="27"/>
       <c r="M116" s="33"/>
       <c r="O116" s="62"/>
-      <c r="P116" s="42"/>
+      <c r="P116" s="48"/>
       <c r="Q116" s="33"/>
     </row>
     <row r="117" spans="7:17" x14ac:dyDescent="0.25">
@@ -13586,7 +13586,7 @@
       <c r="L117" s="27"/>
       <c r="M117" s="33"/>
       <c r="O117" s="62"/>
-      <c r="P117" s="42"/>
+      <c r="P117" s="48"/>
       <c r="Q117" s="33"/>
     </row>
     <row r="118" spans="7:17" x14ac:dyDescent="0.25">
@@ -13596,7 +13596,7 @@
       <c r="L118" s="27"/>
       <c r="M118" s="33"/>
       <c r="O118" s="62"/>
-      <c r="P118" s="42"/>
+      <c r="P118" s="48"/>
       <c r="Q118" s="33"/>
     </row>
     <row r="119" spans="7:17" x14ac:dyDescent="0.25">
@@ -13606,7 +13606,7 @@
       <c r="L119" s="27"/>
       <c r="M119" s="33"/>
       <c r="O119" s="62"/>
-      <c r="P119" s="42"/>
+      <c r="P119" s="48"/>
       <c r="Q119" s="33"/>
     </row>
     <row r="120" spans="7:17" x14ac:dyDescent="0.25">
@@ -13616,7 +13616,7 @@
       <c r="L120" s="27"/>
       <c r="M120" s="33"/>
       <c r="O120" s="62"/>
-      <c r="P120" s="42"/>
+      <c r="P120" s="48"/>
       <c r="Q120" s="33"/>
     </row>
     <row r="121" spans="7:17" x14ac:dyDescent="0.25">
@@ -13626,7 +13626,7 @@
       <c r="L121" s="27"/>
       <c r="M121" s="33"/>
       <c r="O121" s="62"/>
-      <c r="P121" s="42"/>
+      <c r="P121" s="48"/>
       <c r="Q121" s="33"/>
     </row>
     <row r="122" spans="7:17" x14ac:dyDescent="0.25">
@@ -13636,7 +13636,7 @@
       <c r="L122" s="27"/>
       <c r="M122" s="33"/>
       <c r="O122" s="62"/>
-      <c r="P122" s="42"/>
+      <c r="P122" s="48"/>
       <c r="Q122" s="33"/>
     </row>
     <row r="123" spans="7:17" x14ac:dyDescent="0.25">
@@ -13646,7 +13646,7 @@
       <c r="L123" s="27"/>
       <c r="M123" s="33"/>
       <c r="O123" s="62"/>
-      <c r="P123" s="42"/>
+      <c r="P123" s="48"/>
       <c r="Q123" s="33"/>
     </row>
     <row r="124" spans="7:17" x14ac:dyDescent="0.25">
@@ -13656,7 +13656,7 @@
       <c r="L124" s="27"/>
       <c r="M124" s="33"/>
       <c r="O124" s="62"/>
-      <c r="P124" s="42"/>
+      <c r="P124" s="48"/>
       <c r="Q124" s="33"/>
     </row>
     <row r="125" spans="7:17" x14ac:dyDescent="0.25">
@@ -13666,7 +13666,7 @@
       <c r="L125" s="27"/>
       <c r="M125" s="33"/>
       <c r="O125" s="62"/>
-      <c r="P125" s="42"/>
+      <c r="P125" s="48"/>
       <c r="Q125" s="33"/>
     </row>
     <row r="126" spans="7:17" x14ac:dyDescent="0.25">
@@ -13676,7 +13676,7 @@
       <c r="L126" s="27"/>
       <c r="M126" s="33"/>
       <c r="O126" s="62"/>
-      <c r="P126" s="42"/>
+      <c r="P126" s="48"/>
       <c r="Q126" s="33"/>
     </row>
     <row r="127" spans="7:17" x14ac:dyDescent="0.25">
@@ -13686,7 +13686,7 @@
       <c r="L127" s="27"/>
       <c r="M127" s="33"/>
       <c r="O127" s="62"/>
-      <c r="P127" s="42"/>
+      <c r="P127" s="48"/>
       <c r="Q127" s="33"/>
     </row>
     <row r="128" spans="7:17" x14ac:dyDescent="0.25">
@@ -13696,7 +13696,7 @@
       <c r="L128" s="27"/>
       <c r="M128" s="33"/>
       <c r="O128" s="62"/>
-      <c r="P128" s="42"/>
+      <c r="P128" s="48"/>
       <c r="Q128" s="33"/>
     </row>
     <row r="129" spans="7:17" x14ac:dyDescent="0.25">
@@ -13706,7 +13706,7 @@
       <c r="L129" s="27"/>
       <c r="M129" s="33"/>
       <c r="O129" s="62"/>
-      <c r="P129" s="42"/>
+      <c r="P129" s="48"/>
       <c r="Q129" s="33"/>
     </row>
     <row r="130" spans="7:17" x14ac:dyDescent="0.25">
@@ -13716,7 +13716,7 @@
       <c r="L130" s="27"/>
       <c r="M130" s="33"/>
       <c r="O130" s="62"/>
-      <c r="P130" s="42"/>
+      <c r="P130" s="48"/>
       <c r="Q130" s="33"/>
     </row>
     <row r="131" spans="7:17" x14ac:dyDescent="0.25">
@@ -13726,7 +13726,7 @@
       <c r="L131" s="27"/>
       <c r="M131" s="33"/>
       <c r="O131" s="62"/>
-      <c r="P131" s="42"/>
+      <c r="P131" s="48"/>
       <c r="Q131" s="33"/>
     </row>
     <row r="132" spans="7:17" x14ac:dyDescent="0.25">
@@ -13736,7 +13736,7 @@
       <c r="L132" s="27"/>
       <c r="M132" s="33"/>
       <c r="O132" s="62"/>
-      <c r="P132" s="42"/>
+      <c r="P132" s="48"/>
       <c r="Q132" s="33"/>
     </row>
     <row r="133" spans="7:17" x14ac:dyDescent="0.25">
@@ -13746,7 +13746,7 @@
       <c r="L133" s="27"/>
       <c r="M133" s="33"/>
       <c r="O133" s="62"/>
-      <c r="P133" s="42"/>
+      <c r="P133" s="48"/>
       <c r="Q133" s="33"/>
     </row>
     <row r="134" spans="7:17" x14ac:dyDescent="0.25">
@@ -13756,7 +13756,7 @@
       <c r="L134" s="27"/>
       <c r="M134" s="33"/>
       <c r="O134" s="62"/>
-      <c r="P134" s="42"/>
+      <c r="P134" s="48"/>
       <c r="Q134" s="33"/>
     </row>
     <row r="135" spans="7:17" x14ac:dyDescent="0.25">
@@ -13766,7 +13766,7 @@
       <c r="L135" s="27"/>
       <c r="M135" s="33"/>
       <c r="O135" s="62"/>
-      <c r="P135" s="42"/>
+      <c r="P135" s="48"/>
       <c r="Q135" s="33"/>
     </row>
     <row r="136" spans="7:17" x14ac:dyDescent="0.25">
@@ -13776,7 +13776,7 @@
       <c r="L136" s="27"/>
       <c r="M136" s="33"/>
       <c r="O136" s="62"/>
-      <c r="P136" s="42"/>
+      <c r="P136" s="48"/>
       <c r="Q136" s="33"/>
     </row>
     <row r="137" spans="7:17" x14ac:dyDescent="0.25">
@@ -13785,8 +13785,8 @@
       <c r="I137" s="32"/>
       <c r="L137" s="27"/>
       <c r="M137" s="33"/>
-      <c r="O137" s="51"/>
-      <c r="P137" s="52"/>
+      <c r="O137" s="68"/>
+      <c r="P137" s="69"/>
       <c r="Q137" s="19"/>
     </row>
     <row r="138" spans="7:17" x14ac:dyDescent="0.25">
@@ -13798,6 +13798,137 @@
     </row>
   </sheetData>
   <mergeCells count="155">
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="O137:P137"/>
+    <mergeCell ref="C28:E32"/>
+    <mergeCell ref="O118:P118"/>
+    <mergeCell ref="O107:P107"/>
+    <mergeCell ref="O108:P108"/>
+    <mergeCell ref="O109:P109"/>
+    <mergeCell ref="O110:P110"/>
+    <mergeCell ref="O111:P111"/>
+    <mergeCell ref="O112:P112"/>
+    <mergeCell ref="O101:P101"/>
+    <mergeCell ref="O102:P102"/>
+    <mergeCell ref="O103:P103"/>
+    <mergeCell ref="O104:P104"/>
+    <mergeCell ref="O105:P105"/>
+    <mergeCell ref="O106:P106"/>
+    <mergeCell ref="O95:P95"/>
+    <mergeCell ref="O96:P96"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="O131:P131"/>
+    <mergeCell ref="O132:P132"/>
+    <mergeCell ref="O133:P133"/>
+    <mergeCell ref="O134:P134"/>
+    <mergeCell ref="O135:P135"/>
+    <mergeCell ref="O136:P136"/>
+    <mergeCell ref="O125:P125"/>
+    <mergeCell ref="O126:P126"/>
+    <mergeCell ref="O127:P127"/>
+    <mergeCell ref="O128:P128"/>
+    <mergeCell ref="O129:P129"/>
+    <mergeCell ref="O130:P130"/>
+    <mergeCell ref="O119:P119"/>
+    <mergeCell ref="O120:P120"/>
+    <mergeCell ref="O121:P121"/>
+    <mergeCell ref="O122:P122"/>
+    <mergeCell ref="O123:P123"/>
+    <mergeCell ref="O124:P124"/>
+    <mergeCell ref="O113:P113"/>
+    <mergeCell ref="O114:P114"/>
+    <mergeCell ref="O115:P115"/>
+    <mergeCell ref="O116:P116"/>
+    <mergeCell ref="O117:P117"/>
+    <mergeCell ref="O97:P97"/>
+    <mergeCell ref="O98:P98"/>
+    <mergeCell ref="O99:P99"/>
+    <mergeCell ref="O100:P100"/>
+    <mergeCell ref="O89:P89"/>
+    <mergeCell ref="O90:P90"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="O92:P92"/>
+    <mergeCell ref="O93:P93"/>
+    <mergeCell ref="O94:P94"/>
+    <mergeCell ref="O83:P83"/>
+    <mergeCell ref="O84:P84"/>
+    <mergeCell ref="O85:P85"/>
+    <mergeCell ref="O86:P86"/>
+    <mergeCell ref="O87:P87"/>
+    <mergeCell ref="O88:P88"/>
+    <mergeCell ref="O77:P77"/>
+    <mergeCell ref="O78:P78"/>
+    <mergeCell ref="O79:P79"/>
+    <mergeCell ref="O80:P80"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="O82:P82"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="O74:P74"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="O76:P76"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="O68:P68"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="O70:P70"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
     <mergeCell ref="S8:T8"/>
     <mergeCell ref="S9:T9"/>
     <mergeCell ref="S10:T10"/>
@@ -13822,137 +13953,6 @@
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="O61:P61"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="O73:P73"/>
-    <mergeCell ref="O74:P74"/>
-    <mergeCell ref="O75:P75"/>
-    <mergeCell ref="O76:P76"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="O67:P67"/>
-    <mergeCell ref="O68:P68"/>
-    <mergeCell ref="O69:P69"/>
-    <mergeCell ref="O70:P70"/>
-    <mergeCell ref="O83:P83"/>
-    <mergeCell ref="O84:P84"/>
-    <mergeCell ref="O85:P85"/>
-    <mergeCell ref="O86:P86"/>
-    <mergeCell ref="O87:P87"/>
-    <mergeCell ref="O88:P88"/>
-    <mergeCell ref="O77:P77"/>
-    <mergeCell ref="O78:P78"/>
-    <mergeCell ref="O79:P79"/>
-    <mergeCell ref="O80:P80"/>
-    <mergeCell ref="O81:P81"/>
-    <mergeCell ref="O82:P82"/>
-    <mergeCell ref="O97:P97"/>
-    <mergeCell ref="O98:P98"/>
-    <mergeCell ref="O99:P99"/>
-    <mergeCell ref="O100:P100"/>
-    <mergeCell ref="O89:P89"/>
-    <mergeCell ref="O90:P90"/>
-    <mergeCell ref="O91:P91"/>
-    <mergeCell ref="O92:P92"/>
-    <mergeCell ref="O93:P93"/>
-    <mergeCell ref="O94:P94"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="O131:P131"/>
-    <mergeCell ref="O132:P132"/>
-    <mergeCell ref="O133:P133"/>
-    <mergeCell ref="O134:P134"/>
-    <mergeCell ref="O135:P135"/>
-    <mergeCell ref="O136:P136"/>
-    <mergeCell ref="O125:P125"/>
-    <mergeCell ref="O126:P126"/>
-    <mergeCell ref="O127:P127"/>
-    <mergeCell ref="O128:P128"/>
-    <mergeCell ref="O129:P129"/>
-    <mergeCell ref="O130:P130"/>
-    <mergeCell ref="O119:P119"/>
-    <mergeCell ref="O120:P120"/>
-    <mergeCell ref="O121:P121"/>
-    <mergeCell ref="O122:P122"/>
-    <mergeCell ref="O123:P123"/>
-    <mergeCell ref="O124:P124"/>
-    <mergeCell ref="O113:P113"/>
-    <mergeCell ref="O114:P114"/>
-    <mergeCell ref="O115:P115"/>
-    <mergeCell ref="O116:P116"/>
-    <mergeCell ref="O117:P117"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="O137:P137"/>
-    <mergeCell ref="C28:E32"/>
-    <mergeCell ref="O118:P118"/>
-    <mergeCell ref="O107:P107"/>
-    <mergeCell ref="O108:P108"/>
-    <mergeCell ref="O109:P109"/>
-    <mergeCell ref="O110:P110"/>
-    <mergeCell ref="O111:P111"/>
-    <mergeCell ref="O112:P112"/>
-    <mergeCell ref="O101:P101"/>
-    <mergeCell ref="O102:P102"/>
-    <mergeCell ref="O103:P103"/>
-    <mergeCell ref="O104:P104"/>
-    <mergeCell ref="O105:P105"/>
-    <mergeCell ref="O106:P106"/>
-    <mergeCell ref="O95:P95"/>
-    <mergeCell ref="O96:P96"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -13973,40 +13973,40 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="76" t="s">
         <v>281</v>
       </c>
-      <c r="C7" s="69"/>
+      <c r="C7" s="76"/>
       <c r="D7" s="21">
         <f>MEDIAN(Dados!D:D)</f>
         <v>77.628676470588204</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="76" t="s">
         <v>280</v>
       </c>
-      <c r="C8" s="69"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="22" cm="1">
         <f t="array" ref="D8">_xlfn.MODE.MULT(Dados!D:D)</f>
         <v>22.89</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="76" t="s">
         <v>282</v>
       </c>
-      <c r="C9" s="69"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="22">
         <f>_xlfn.STDEV.S(Dados!D:D)</f>
         <v>62.123056164368805</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="C10" s="69"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="24">
         <f>_xlfn.PERCENTILE.INC(Dados!D:D,0.25)</f>
         <v>71.867613636363615</v>
@@ -14024,6 +14024,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010016596E5AD9E7C549A5F25A54EE84BBA6" ma:contentTypeVersion="1" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="79a7bee8b88cd82d1c323d273453b8d2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="af5f9497-0332-4c14-a61a-b0f6c9ebd52f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9cc46d7d7fba055136c56feec09cd8d2" ns2:_="">
     <xsd:import namespace="af5f9497-0332-4c14-a61a-b0f6c9ebd52f"/>
@@ -14149,16 +14158,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DF657A8-98B1-4515-943B-8D00BD66BB62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68F149B0-F08D-4FA5-8950-127CC4E27036}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14174,12 +14182,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DF657A8-98B1-4515-943B-8D00BD66BB62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>